--- a/input/reg_labourSupplyUtility.xlsx
+++ b/input/reg_labourSupplyUtility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F89B3C0-F0E5-4DB1-97E4-6AABB5D7EDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A830DA4-E84D-4999-8669-FCBDB0CBC71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="948" activeTab="1" xr2:uid="{CE10044B-DF17-4109-838C-2F682B85B23F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="948" xr2:uid="{CE10044B-DF17-4109-838C-2F682B85B23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C952C-0730-457A-A376-78EF87C9F806}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4347,7 +4347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FEAAE6-65C5-44AD-94AB-B2F965791C43}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7958,7 +7960,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11503,11 +11505,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF4F370-8F94-4471-B70B-705C22298390}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11518,7 +11518,7 @@
     <col min="16" max="16" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11573,9 +11573,8 @@
       <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -11630,9 +11629,8 @@
       <c r="R2">
         <v>3.1460858984597195E-4</v>
       </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -11687,9 +11685,8 @@
       <c r="R3">
         <v>7.2492780963537298E-7</v>
       </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -11744,9 +11741,8 @@
       <c r="R4">
         <v>8.0703428654477888E-4</v>
       </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -11802,7 +11798,7 @@
         <v>-2.5921428222295271E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -11858,7 +11854,7 @@
         <v>-7.3876092880192162E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -11914,7 +11910,7 @@
         <v>-1.3010266604742478E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -11970,7 +11966,7 @@
         <v>1.1842750979979017E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -12026,7 +12022,7 @@
         <v>-3.1918060687474076E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -12082,7 +12078,7 @@
         <v>3.783532562977429E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -12138,7 +12134,7 @@
         <v>2.8477907124923631E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -12194,7 +12190,7 @@
         <v>5.8073802558997894E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -12250,7 +12246,7 @@
         <v>9.1443971642928522E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>1.177443134041671E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -12362,7 +12358,7 @@
         <v>1.1913058251597525E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -12484,7 +12480,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13459,7 +13455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E4BA5A-69F1-4BBC-84FF-1A1A1810CA5C}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14134,8 +14132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ABBF8F-3DA9-4957-ACE4-D5C4AAE8F601}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15860,8 +15858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86831B41-CE8C-4F34-B10B-C522104558DF}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
